--- a/assets/2025/giocatori.xlsx
+++ b/assets/2025/giocatori.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="452">
   <si>
     <t xml:space="preserve">Nominativo</t>
   </si>
@@ -35,6 +35,1347 @@
   </si>
   <si>
     <t xml:space="preserve">Ruolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Eduardo Grazioli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rita Levi’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’indesiderabile Numero 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riccardo Barbiero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alabarda Spaziale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniele Feltrinelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Transiberiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico Leonardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pan carré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portiere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emanuele Miorandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re di bastoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesce fuor d’acqua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca Tonolli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Renton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele Leonardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesto Tigullio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arvin Zanolli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armin van Buuren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro Zandonai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'uomo che sussurrava ai ghepardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Manconi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mancuso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorenzo Barozzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagliagole canadese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davide Simoncelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele Ruele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruy Mysterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Barozzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier Zanetti della statale 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacopo Ricci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellas Lazio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orso Balosso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorenzo Mori`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davide  Rosa`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldato Semplice Nemecsek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raffaele Prezzi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Cura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro Galvagni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo Stalker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Cescatti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il Bolscevico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simone Martini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donatella Rettore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Bazzanella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torgo nudo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico Rippa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vigili del Fusto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estintore a polvere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabio  Battistotti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremy Wade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Di Filippo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubbio gusto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicola Dalledonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La donnola di ravina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacopo Zecchinelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er mutanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto Curcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si signor brigadiere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davide Zoara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sturmstruppen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francesco Cristoforetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Hole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo Trinco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corpo Nazionale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simone Rospocher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro Comper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC GORILLAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantic Caballero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro  Ruele </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigio Dollaruma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuele  Maffei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyranitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolo  Speziali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taglia burro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanni Torboli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'uomo che sussurrava ai bidet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea  Manfredi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinguini Trentini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psyko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Brigo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurobrigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davide  Manica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pala Eolica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea  Roveda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrico Bordignon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ormone Impazzito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanni Umberto Di Meo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOVANI VAN BRONKORST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea  Aste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tre Ombre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Pilati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponzio Pilati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessio Farinati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorenzo Casari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazzzionale ferrovieri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il regionale ferma a Peri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele Eccel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pietro Marchesini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amministratore di pagine brutte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo Fedrigotti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il boscaiolo ledrense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Bellini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California zephyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armando Renzetti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabib </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilson Bona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il patron di Trenitalia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabio Daves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il controllore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elia Tomasoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T come…Tigro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommaso Caliari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSA United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pappagallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Togni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raimondo Vianello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriele Lasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro Fait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fait Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicola Togni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circo Togni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirko Raffaelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vannetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca Pozzati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opera Romani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro Fanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC SALAGIARDINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Calcinardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose rosse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Raffaelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto Raffaelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massimiliano Rossi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pindol revers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanni Frizzera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerbere a 50 centesimi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gianni Sala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gianluca Grignani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniele Ruzzenenti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demobusters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Gatti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldatino di piombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorenzo Scottini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eldorado Shomurodov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Melis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mano a reazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riccardo Zeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terzo porcellino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Barozzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divin Codino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuele Rosà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maranza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanni Giusto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattia Kaiserman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gli Introvabili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo Comper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerardo  Todisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moris Benedetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico  Gropuzzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Pontillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Pedrotti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico Mortillaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clitoriders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morte Nera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefano  Tita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giannizzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele Merighi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iena Ridens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Giordani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orso Bruno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca Frasca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delirium Tremens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefano Galvagni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mentadent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattia Festi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHARK ATTACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattia Baldessarini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassino cerebrale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto Cerisara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’uomo che ha mangiato JB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo Viola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uomo informe 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca Giordani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chef più in forma d’Europa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessio Bragagna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice Try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriele  Brentari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mocio Vileda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Giovannella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bevem4tut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riccanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giacomo Gatti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maurizio Maffei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuele Pedrotti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riccardo Madaschi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico Madaschi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico  Zanini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.DENTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niccolò Marzari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuele Kettmaier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kettamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maverick Bertolini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top gun Maverick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sayf Brik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Bertè </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emanuele Toss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4SINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanni  Lasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Torboli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Sinani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca Lasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesca a strascico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Debiasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai una gioia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizzatore di eventi brutti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maikol  azocar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nastro isolante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadir  chtioui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casablanca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Cavagna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val di gresta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlo  Stedile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to paradise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randy  cobbinah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessio Debiasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giacomo  Gasparini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pietro  Gasparini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polimero striato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessio Koleci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Ginger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blendi Capa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasca di decantazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Vela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercedesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo Bushi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filippo Maraner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McGregor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxim Bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro di Gravità permanente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorenzo Rossi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emiliano Bici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gentian Capa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirana punk hardcore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elia Barozzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Magnifici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bjorn Borg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danny Giordani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palcuto Deprima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guglielmo Caroli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan Bogdanov </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto Simoncelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iginio Massari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filippo Benetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fungo Atomico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simone Schonsberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polis-Tirolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorenzo Zuani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il Pediatra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefano Mattioli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SdrumALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panchinaro d'oro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Trainotti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business up front, party in the back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Emanuelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panocia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessio Delli Compagni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartonato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Menolli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guano di Cigno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davide Deimichei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Martinelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallville-Klark Kent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreas Galli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allevatore di galli da combattimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davide Fontana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBARX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ginew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrico Parisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il caschetto che fa impazzire le cinquantenni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico Fasanelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aah ma è Ronco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessio Zandonai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comglomerato urbano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Zanlucchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biker Mice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicholas Marzadro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sgnappa secca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niccolò Orsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JJ4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saverio Santoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.SGUARNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercity notte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Gober</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scintillio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Pedri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Diener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nemico del popolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattia Tezzele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor Raptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico Nicolodi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notti magiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elia Battisti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riccardo Zaffoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugherim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Lanaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il Cacciatore del Sole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Bertolini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bomber Berto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico Pomarolli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principe Guerriero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edoardo Pomarolli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il bello della Piof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Sartorelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playboy della Busa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riccardo Versini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pertica della Piof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard  Spagnolli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Schalke 104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il falso invalido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessio  Giordano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pistolino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco  Picchinenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pietro  Di Liberto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio  Dominici </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casu marzu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea  Amendola </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er Monnezza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davide  Ganganelli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmone scaduto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francesco  Pizzini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayern mona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottega aperta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Tatarella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love sebach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davide Sannicoló</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicoló Gelmini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guendouzi di montalbano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paolo Salvetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capricorno alle corna di rame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Pedrotti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMONTAGNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuginoman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico  Andreis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distinto signor rabbioso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Mutinelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urbano il vigile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea  Pedrotti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medioman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico Manica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Ricciardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacopo  Chemini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teschio fiammeggiante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniele Dalbosco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gresta de cunel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Simoncelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvo errori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davide  Bazzano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il ripudiato - pistone rovente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Sala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cane rognoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicola conti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wanda tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parrucchino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stefano  rosina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matteo  cembrani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il fioraio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carlo pomarolli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bettino Craxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riccardo baldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'idolo delle quindicenni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emanuele  valduga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiammifero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mattia spagnolli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dott. Nowzaradan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas Giordani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC SAVIGNANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiburon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giacomo  De Zambotti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferro da stiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro Maffei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il fondatore di social network </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geremia  Carollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amedeo Malesardi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nono comandamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Conzatti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caldaia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Maraner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangue Vegano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Gerola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geronimo Stilton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele Bertolini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Columbro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Anzelini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunnel del vento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniele Feller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babbuino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davide Raffaelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giraffa di Frassino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico Zoller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoidberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Mazzola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gennaro Bullo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Mancabelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questi sen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lian Cambingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel Beber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattia Rizzoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriele Papalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolò  Papalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastiano Zoller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGB Gamberoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carenza di spritz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Perenzoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granchio blu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriele Gottardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centomila cammelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorenzo Canali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvo buon fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro Zeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimo samurai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriele Verona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temptation Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca Perenzoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chernobyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattia Lotti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUEI STRAZI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuele Sartori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro Sartori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabio Coati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elias Viesi Lutteri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattia Bertolini</t>
   </si>
 </sst>
 </file>
@@ -70,8 +1411,9 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -83,19 +1425,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -129,8 +1464,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -325,15 +1660,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:XFD233"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A209" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A234" activeCellId="0" sqref="2:234"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.64"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -349,14 +1689,3806 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="XFD1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D233" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/assets/2025/giocatori.xlsx
+++ b/assets/2025/giocatori.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A:$E</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -1459,12 +1462,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1477,7 +1484,28 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1662,3827 +1690,3828 @@
   </sheetPr>
   <dimension ref="A1:XFD233"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F67" activeCellId="0" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.64"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="XFD1" s="0"/>
+      <c r="XFD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="D25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E26" s="0" t="s">
+      <c r="D26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="D27" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="D28" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="D30" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="D31" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E32" s="0" t="s">
+      <c r="D32" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E34" s="0" t="s">
+      <c r="D34" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E65" s="0" t="s">
+      <c r="D65" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E66" s="0" t="s">
+      <c r="D66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E67" s="0" t="s">
+      <c r="D67" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="0" t="s">
+      <c r="D68" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E96" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D113" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="D114" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D116" s="0" t="n">
+      <c r="D116" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="D117" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D119" s="0" t="n">
+      <c r="D119" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D120" s="0" t="n">
+      <c r="D120" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="E120" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D122" s="0" t="n">
+      <c r="D122" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="E122" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D123" s="0" t="n">
+      <c r="D123" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D124" s="0" t="n">
+      <c r="D124" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="E124" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="E125" s="0" t="s">
+      <c r="E125" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E126" s="0" t="s">
+      <c r="E126" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D127" s="0" t="n">
+      <c r="D127" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="E127" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D128" s="0" t="n">
+      <c r="D128" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="E128" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E129" s="0" t="s">
+      <c r="E129" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E130" s="0" t="s">
+      <c r="E130" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="E131" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E132" s="0" t="s">
+      <c r="E132" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D133" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E133" s="0" t="s">
+      <c r="D133" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D134" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E134" s="0" t="s">
+      <c r="D134" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D135" s="0" t="n">
+      <c r="D135" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E135" s="0" t="s">
+      <c r="E135" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D136" s="0" t="n">
+      <c r="D136" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="E136" s="0" t="s">
+      <c r="E136" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E137" s="0" t="s">
+      <c r="E137" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D138" s="0" t="n">
+      <c r="D138" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E138" s="0" t="s">
+      <c r="E138" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D139" s="0" t="n">
+      <c r="D139" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E139" s="0" t="s">
+      <c r="E139" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D140" s="0" t="n">
+      <c r="D140" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E140" s="0" t="s">
+      <c r="E140" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D141" s="0" t="n">
+      <c r="D141" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E141" s="0" t="s">
+      <c r="E141" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D142" s="0" t="n">
+      <c r="D142" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="E142" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D143" s="0" t="n">
+      <c r="D143" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="E143" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D144" s="0" t="n">
+      <c r="D144" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="E144" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D145" s="0" t="n">
+      <c r="D145" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E145" s="0" t="s">
+      <c r="E145" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D146" s="0" t="n">
+      <c r="D146" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E146" s="0" t="s">
+      <c r="E146" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D147" s="0" t="n">
+      <c r="D147" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E147" s="0" t="s">
+      <c r="E147" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D148" s="0" t="n">
+      <c r="D148" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E148" s="0" t="s">
+      <c r="E148" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D149" s="0" t="n">
+      <c r="D149" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E149" s="0" t="s">
+      <c r="E149" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D150" s="0" t="n">
+      <c r="D150" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E150" s="0" t="s">
+      <c r="E150" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D151" s="0" t="n">
+      <c r="D151" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E151" s="0" t="s">
+      <c r="E151" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D152" s="0" t="n">
+      <c r="D152" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E152" s="0" t="s">
+      <c r="E152" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D153" s="0" t="n">
+      <c r="D153" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="E153" s="0" t="s">
+      <c r="E153" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D154" s="0" t="n">
+      <c r="D154" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E154" s="0" t="s">
+      <c r="E154" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D155" s="0" t="n">
+      <c r="D155" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="E155" s="0" t="s">
+      <c r="E155" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D156" s="0" t="n">
+      <c r="D156" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E156" s="0" t="s">
+      <c r="E156" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D157" s="0" t="n">
+      <c r="D157" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E157" s="0" t="s">
+      <c r="E157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D158" s="0" t="n">
+      <c r="D158" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="E158" s="0" t="s">
+      <c r="E158" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D159" s="0" t="n">
+      <c r="D159" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E159" s="0" t="s">
+      <c r="E159" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D160" s="0" t="n">
+      <c r="D160" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E160" s="0" t="s">
+      <c r="E160" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D161" s="0" t="n">
+      <c r="D161" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="E161" s="0" t="s">
+      <c r="E161" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D162" s="0" t="n">
+      <c r="D162" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E162" s="0" t="s">
+      <c r="E162" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D163" s="0" t="n">
+      <c r="D163" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="E163" s="0" t="s">
+      <c r="E163" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D164" s="0" t="n">
+      <c r="D164" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E164" s="0" t="s">
+      <c r="E164" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D165" s="0" t="n">
+      <c r="D165" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E165" s="0" t="s">
+      <c r="E165" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D166" s="0" t="n">
+      <c r="D166" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="E166" s="0" t="s">
+      <c r="E166" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D167" s="0" t="n">
+      <c r="D167" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="E167" s="0" t="s">
+      <c r="E167" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D168" s="0" t="n">
+      <c r="D168" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E168" s="0" t="s">
+      <c r="E168" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D169" s="0" t="n">
+      <c r="D169" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="E169" s="0" t="s">
+      <c r="E169" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D170" s="0" t="n">
+      <c r="D170" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="E170" s="0" t="s">
+      <c r="E170" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D171" s="0" t="n">
+      <c r="D171" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="E171" s="0" t="s">
+      <c r="E171" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D172" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E172" s="0" t="s">
+      <c r="D172" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D173" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E173" s="0" t="s">
+      <c r="D173" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D174" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E174" s="0" t="s">
+      <c r="D174" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D175" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E175" s="0" t="s">
+      <c r="D175" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D176" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E176" s="0" t="s">
+      <c r="D176" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D177" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E177" s="0" t="s">
+      <c r="D177" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D178" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E178" s="0" t="s">
+      <c r="D178" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D179" s="0" t="n">
+      <c r="D179" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E179" s="0" t="s">
+      <c r="E179" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D180" s="0" t="n">
+      <c r="D180" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E180" s="0" t="s">
+      <c r="E180" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B181" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D181" s="0" t="n">
+      <c r="D181" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E181" s="0" t="s">
+      <c r="E181" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D182" s="0" t="n">
+      <c r="D182" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E182" s="0" t="s">
+      <c r="E182" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D183" s="0" t="n">
+      <c r="D183" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E183" s="0" t="s">
+      <c r="E183" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B184" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D184" s="0" t="n">
+      <c r="D184" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E184" s="0" t="s">
+      <c r="E184" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C185" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D185" s="0" t="n">
+      <c r="D185" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="E185" s="0" t="s">
+      <c r="E185" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C186" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D186" s="0" t="n">
+      <c r="D186" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E186" s="0" t="s">
+      <c r="E186" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B187" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D187" s="0" t="n">
+      <c r="D187" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="E187" s="0" t="s">
+      <c r="E187" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="A188" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D188" s="0" t="n">
+      <c r="D188" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="E188" s="0" t="s">
+      <c r="E188" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D189" s="0" t="n">
+      <c r="D189" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E189" s="0" t="s">
+      <c r="E189" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D190" s="0" t="n">
+      <c r="D190" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E190" s="0" t="s">
+      <c r="E190" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="A191" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B191" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D191" s="0" t="n">
+      <c r="D191" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="E191" s="0" t="s">
+      <c r="E191" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="A192" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D192" s="0" t="n">
+      <c r="D192" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E192" s="0" t="s">
+      <c r="E192" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="A193" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D193" s="0" t="n">
+      <c r="D193" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="E193" s="0" t="s">
+      <c r="E193" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+      <c r="A194" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D194" s="0" t="n">
+      <c r="D194" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E194" s="0" t="s">
+      <c r="E194" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="A195" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D195" s="0" t="n">
+      <c r="D195" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E195" s="0" t="s">
+      <c r="E195" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="A196" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D196" s="0" t="n">
+      <c r="D196" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E196" s="0" t="s">
+      <c r="E196" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="A197" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D197" s="0" t="n">
+      <c r="D197" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E197" s="0" t="s">
+      <c r="E197" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="A198" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D198" s="0" t="n">
+      <c r="D198" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E198" s="0" t="s">
+      <c r="E198" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D199" s="0" t="n">
+      <c r="D199" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E199" s="0" t="s">
+      <c r="E199" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="A200" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D200" s="0" t="n">
+      <c r="D200" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E200" s="0" t="s">
+      <c r="E200" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="A201" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D201" s="0" t="n">
+      <c r="D201" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="E201" s="0" t="s">
+      <c r="E201" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D202" s="0" t="n">
+      <c r="D202" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="E202" s="0" t="s">
+      <c r="E202" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="A203" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D203" s="0" t="n">
+      <c r="D203" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="E203" s="0" t="s">
+      <c r="E203" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D204" s="0" t="n">
+      <c r="D204" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E204" s="0" t="s">
+      <c r="E204" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="A205" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B205" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D205" s="0" t="n">
+      <c r="D205" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E205" s="0" t="s">
+      <c r="E205" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D206" s="0" t="n">
+      <c r="D206" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="E206" s="0" t="s">
+      <c r="E206" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D207" s="0" t="n">
+      <c r="D207" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E207" s="0" t="s">
+      <c r="E207" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="A208" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D208" s="0" t="n">
+      <c r="D208" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E208" s="0" t="s">
+      <c r="E208" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D209" s="0" t="n">
+      <c r="D209" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E209" s="0" t="s">
+      <c r="E209" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B210" s="0" t="s">
+      <c r="B210" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="C210" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D210" s="0" t="n">
+      <c r="D210" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E210" s="0" t="s">
+      <c r="E210" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="A211" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B211" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C211" s="0" t="s">
+      <c r="C211" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D211" s="0" t="n">
+      <c r="D211" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E211" s="0" t="s">
+      <c r="E211" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B212" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="C212" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D212" s="0" t="n">
+      <c r="D212" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E212" s="0" t="s">
+      <c r="E212" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="A213" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="B213" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C213" s="0" t="s">
+      <c r="C213" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D213" s="0" t="n">
+      <c r="D213" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E213" s="0" t="s">
+      <c r="E213" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="A214" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C214" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D214" s="0" t="n">
+      <c r="D214" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E214" s="0" t="s">
+      <c r="E214" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="A215" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="B215" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D215" s="0" t="n">
+      <c r="D215" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E215" s="0" t="s">
+      <c r="E215" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="A216" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B216" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D216" s="0" t="n">
+      <c r="D216" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E216" s="0" t="s">
+      <c r="E216" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="A217" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B217" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D217" s="0" t="n">
+      <c r="D217" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E217" s="0" t="s">
+      <c r="E217" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="A218" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B218" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D218" s="0" t="n">
+      <c r="D218" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E218" s="0" t="s">
+      <c r="E218" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="A219" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="B219" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D219" s="0" t="n">
+      <c r="D219" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E219" s="0" t="s">
+      <c r="E219" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="A220" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="B220" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D220" s="0" t="n">
+      <c r="D220" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E220" s="0" t="s">
+      <c r="E220" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="A221" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="B221" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C221" s="0" t="s">
+      <c r="C221" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D221" s="0" t="n">
+      <c r="D221" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E221" s="0" t="s">
+      <c r="E221" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="A222" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="B222" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C222" s="0" t="s">
+      <c r="C222" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D222" s="0" t="n">
+      <c r="D222" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E222" s="0" t="s">
+      <c r="E222" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="A223" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="B223" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="C223" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D223" s="0" t="n">
+      <c r="D223" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E223" s="0" t="s">
+      <c r="E223" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="A224" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="C224" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D224" s="0" t="n">
+      <c r="D224" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="E224" s="0" t="s">
+      <c r="E224" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="A225" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B225" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="C225" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D225" s="0" t="n">
+      <c r="D225" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="E225" s="0" t="s">
+      <c r="E225" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="A226" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="B226" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="C226" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D226" s="0" t="n">
+      <c r="D226" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E226" s="0" t="s">
+      <c r="E226" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="A227" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B227" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="C227" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D227" s="0" t="n">
+      <c r="D227" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E227" s="0" t="s">
+      <c r="E227" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="A228" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B228" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D228" s="0" t="n">
+      <c r="D228" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E228" s="0" t="s">
+      <c r="E228" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="A229" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B229" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D229" s="0" t="n">
+      <c r="D229" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E229" s="0" t="s">
+      <c r="E229" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="A230" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="B230" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D230" s="0" t="n">
+      <c r="D230" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E230" s="0" t="s">
+      <c r="E230" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="A231" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B231" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D231" s="0" t="n">
+      <c r="D231" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E231" s="0" t="s">
+      <c r="E231" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+      <c r="A232" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B232" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D232" s="0" t="n">
+      <c r="D232" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E232" s="0" t="s">
+      <c r="E232" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="A233" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="B233" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D233" s="0" t="n">
+      <c r="D233" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E233" s="0" t="s">
+      <c r="E233" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A:E"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5490,5 +5519,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>